--- a/data/summary_22072011.xlsx
+++ b/data/summary_22072011.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,616 +406,688 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>30.90718232044199</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>984.5872928176796</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.1952429752066116</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.212704958677686</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.188915890358219</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.0001903059420309244</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>28</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.577900552486188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>34.19116022099448</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>984.6193370165746</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2956314049586777</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2316173553719008</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.868152641925645</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0002575899886679245</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>29.06740331491713</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8.301104972375692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>35.37292817679558</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>984.592817679558</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.3828140495867768</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.3286355371900827</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.412333849821446</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7.469975490863942e-005</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>29.20828729281768</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5.124309392265194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>34.00055248618784</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>984.5961325966852</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.2071157024793388</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.1434231404958678</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.523107642060969</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-1.169560074962e-005</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>29.2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.948066298342541</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>34.42651933701657</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>984.5243093922652</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.1908355371900826</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.0305801652892562</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.728279873461852</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.0002109608691897824</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>29.15690607734807</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6.39060773480663</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>33.58121546961326</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>984.5011049723757</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.2173867768595041</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.1508570247933884</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.594363891426932</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8.657241772554362e-005</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>28.35635359116022</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6.018232044198895</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>33.25469613259669</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>984.5</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4068545454545455</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3209917355371901</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.775759933559598</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-1.845668415451506e-005</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>28</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.58232044198895</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>32.92486187845304</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>984.4386740331491</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.3488057851239669</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2989338842975207</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.292328119578734</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.138238209926636e-005</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>28</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7.695580110497238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>33.5889502762431</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>984.3071823204419</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.2879570247933884</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.2785884297520661</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.732619157701726</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.0001850647000323705</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>28.2950276243094</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6.642541436464089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>37.03093922651934</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>984.3088397790054</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2480140495867769</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2421132231404959</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.576315453638163</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0003229136327287924</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>28.69944751381216</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5.697237569060773</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>38.1646408839779</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>984.3</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.4029305785123967</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.376404132231405</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.526550113668467</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5.489340776889082e-005</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>29.1585635359116</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5.314917127071823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>32.28232044198895</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>986.3066298342541</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.242696694214876</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2217842975206611</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.673826686999135</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.97271147110635e-005</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>30.1828729281768</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>32.7414364640884</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>986.2834254143646</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.1939355371900826</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.01513140495867769</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.601637457017251</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-2.580098838521486e-017</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>29.83977900552486</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.579558011049724</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>32.54917127071823</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>986.2961325966851</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.2681925619834711</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.2538752066115703</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.672347054481591</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-3.729201748934632e-017</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>30.1</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.01657458563535912</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>32.26906077348066</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>986.3055248618784</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.2551760330578513</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.2351553719008264</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.604151786216644</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>9.709745977285111e-005</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>30.06519337016575</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.7988950276243094</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>32.47955801104973</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>986.2220994475139</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.2940471074380165</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.2734239669421488</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.88167791839635</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.0001165913433778286</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>30.1</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.066850828729282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>33.02209944751381</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>986.2232044198895</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.2868702479338843</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.2731859504132231</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.878344027753923</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9.817167295982809e-005</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>30.4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>32.32872928176796</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>986.2154696132598</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1678322314049587</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.05169173553719008</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.394514658495488</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-2.726929716754224e-017</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>30.4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>31.99779005524862</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>986.2353591160221</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.6983933884297521</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.6986363636363636</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>4.327773405640434</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3.373474556186687e-005</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>30.39005524861878</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.628176795580111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>31.88508287292818</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>986.2906077348066</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.4554884297520661</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3666107438016529</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>3.072630559455018</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-2.587362102222077e-017</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>30.3817679558011</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.9674033149171271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>31.884</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>986.298</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-2.938247567837395e-017</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>30.4</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>31.7475138121547</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>986.2701657458564</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.336596694214876</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.3531280991735537</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2.095877654471214</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-2.588476036201407e-017</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>30.4</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.7392265193370166</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>31.55414364640884</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>986.2099447513813</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.2873818181818182</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.3099925619834711</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.747566944336434</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>5.920406108719603e-006</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>30.15138121546961</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>31.43480662983425</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>986.2441988950276</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.3520570247933884</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.3411</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2.237840261914974</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>6.956870273983821e-005</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>30.1</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.3265193370165746</v>
       </c>
     </row>
